--- a/Basededados/ENGLAND_S2.xlsx
+++ b/Basededados/ENGLAND_S2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC311"/>
+  <dimension ref="A1:AC323"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,7 +466,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>FT_Goals_H</t>
+          <t>FT_Goals_A</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -33128,6 +33128,1266 @@
       </c>
       <c r="AC311" t="n">
         <v>1.73</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>E1</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>14/01/2023</t>
+        </is>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>Rotherham</t>
+        </is>
+      </c>
+      <c r="E312" t="inlineStr">
+        <is>
+          <t>Blackburn</t>
+        </is>
+      </c>
+      <c r="F312" t="n">
+        <v>4</v>
+      </c>
+      <c r="G312" t="n">
+        <v>0</v>
+      </c>
+      <c r="H312" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="I312" t="n">
+        <v>1</v>
+      </c>
+      <c r="J312" t="n">
+        <v>0</v>
+      </c>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="L312" t="inlineStr">
+        <is>
+          <t>D Whitestone</t>
+        </is>
+      </c>
+      <c r="M312" t="n">
+        <v>8</v>
+      </c>
+      <c r="N312" t="n">
+        <v>9</v>
+      </c>
+      <c r="O312" t="n">
+        <v>4</v>
+      </c>
+      <c r="P312" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q312" t="n">
+        <v>7</v>
+      </c>
+      <c r="R312" t="n">
+        <v>1</v>
+      </c>
+      <c r="S312" t="n">
+        <v>4</v>
+      </c>
+      <c r="T312" t="n">
+        <v>2</v>
+      </c>
+      <c r="U312" t="n">
+        <v>1</v>
+      </c>
+      <c r="V312" t="n">
+        <v>0</v>
+      </c>
+      <c r="W312" t="n">
+        <v>0</v>
+      </c>
+      <c r="X312" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y312" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z312" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AA312" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AB312" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AC312" t="n">
+        <v>1.73</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>E1</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>14/01/2023</t>
+        </is>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>Bristol City</t>
+        </is>
+      </c>
+      <c r="E313" t="inlineStr">
+        <is>
+          <t>Birmingham</t>
+        </is>
+      </c>
+      <c r="F313" t="n">
+        <v>4</v>
+      </c>
+      <c r="G313" t="n">
+        <v>2</v>
+      </c>
+      <c r="H313" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="I313" t="n">
+        <v>2</v>
+      </c>
+      <c r="J313" t="n">
+        <v>1</v>
+      </c>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="L313" t="inlineStr">
+        <is>
+          <t>J Busby</t>
+        </is>
+      </c>
+      <c r="M313" t="n">
+        <v>10</v>
+      </c>
+      <c r="N313" t="n">
+        <v>14</v>
+      </c>
+      <c r="O313" t="n">
+        <v>5</v>
+      </c>
+      <c r="P313" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q313" t="n">
+        <v>14</v>
+      </c>
+      <c r="R313" t="n">
+        <v>6</v>
+      </c>
+      <c r="S313" t="n">
+        <v>5</v>
+      </c>
+      <c r="T313" t="n">
+        <v>2</v>
+      </c>
+      <c r="U313" t="n">
+        <v>2</v>
+      </c>
+      <c r="V313" t="n">
+        <v>1</v>
+      </c>
+      <c r="W313" t="n">
+        <v>0</v>
+      </c>
+      <c r="X313" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y313" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Z313" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AA313" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AB313" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AC313" t="n">
+        <v>1.73</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>E1</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>14/01/2023</t>
+        </is>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>Burnley</t>
+        </is>
+      </c>
+      <c r="E314" t="inlineStr">
+        <is>
+          <t>Coventry</t>
+        </is>
+      </c>
+      <c r="F314" t="n">
+        <v>1</v>
+      </c>
+      <c r="G314" t="n">
+        <v>0</v>
+      </c>
+      <c r="H314" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="I314" t="n">
+        <v>0</v>
+      </c>
+      <c r="J314" t="n">
+        <v>0</v>
+      </c>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="L314" t="inlineStr">
+        <is>
+          <t>D Webb</t>
+        </is>
+      </c>
+      <c r="M314" t="n">
+        <v>10</v>
+      </c>
+      <c r="N314" t="n">
+        <v>8</v>
+      </c>
+      <c r="O314" t="n">
+        <v>5</v>
+      </c>
+      <c r="P314" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q314" t="n">
+        <v>4</v>
+      </c>
+      <c r="R314" t="n">
+        <v>8</v>
+      </c>
+      <c r="S314" t="n">
+        <v>3</v>
+      </c>
+      <c r="T314" t="n">
+        <v>5</v>
+      </c>
+      <c r="U314" t="n">
+        <v>3</v>
+      </c>
+      <c r="V314" t="n">
+        <v>3</v>
+      </c>
+      <c r="W314" t="n">
+        <v>0</v>
+      </c>
+      <c r="X314" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y314" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="Z314" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AA314" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB314" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AC314" t="n">
+        <v>1.93</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>E1</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>14/01/2023</t>
+        </is>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>Cardiff</t>
+        </is>
+      </c>
+      <c r="E315" t="inlineStr">
+        <is>
+          <t>Wigan</t>
+        </is>
+      </c>
+      <c r="F315" t="n">
+        <v>1</v>
+      </c>
+      <c r="G315" t="n">
+        <v>1</v>
+      </c>
+      <c r="H315" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="I315" t="n">
+        <v>0</v>
+      </c>
+      <c r="J315" t="n">
+        <v>0</v>
+      </c>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="L315" t="inlineStr">
+        <is>
+          <t>J Simpson</t>
+        </is>
+      </c>
+      <c r="M315" t="n">
+        <v>11</v>
+      </c>
+      <c r="N315" t="n">
+        <v>16</v>
+      </c>
+      <c r="O315" t="n">
+        <v>2</v>
+      </c>
+      <c r="P315" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q315" t="n">
+        <v>7</v>
+      </c>
+      <c r="R315" t="n">
+        <v>11</v>
+      </c>
+      <c r="S315" t="n">
+        <v>3</v>
+      </c>
+      <c r="T315" t="n">
+        <v>3</v>
+      </c>
+      <c r="U315" t="n">
+        <v>4</v>
+      </c>
+      <c r="V315" t="n">
+        <v>2</v>
+      </c>
+      <c r="W315" t="n">
+        <v>0</v>
+      </c>
+      <c r="X315" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y315" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="Z315" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AA315" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB315" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AC315" t="n">
+        <v>1.62</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>E1</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>14/01/2023</t>
+        </is>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="D316" t="inlineStr">
+        <is>
+          <t>Hull</t>
+        </is>
+      </c>
+      <c r="E316" t="inlineStr">
+        <is>
+          <t>Huddersfield</t>
+        </is>
+      </c>
+      <c r="F316" t="n">
+        <v>1</v>
+      </c>
+      <c r="G316" t="n">
+        <v>1</v>
+      </c>
+      <c r="H316" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="I316" t="n">
+        <v>0</v>
+      </c>
+      <c r="J316" t="n">
+        <v>1</v>
+      </c>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="L316" t="inlineStr">
+        <is>
+          <t>T Bramall</t>
+        </is>
+      </c>
+      <c r="M316" t="n">
+        <v>14</v>
+      </c>
+      <c r="N316" t="n">
+        <v>8</v>
+      </c>
+      <c r="O316" t="n">
+        <v>5</v>
+      </c>
+      <c r="P316" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q316" t="n">
+        <v>4</v>
+      </c>
+      <c r="R316" t="n">
+        <v>5</v>
+      </c>
+      <c r="S316" t="n">
+        <v>4</v>
+      </c>
+      <c r="T316" t="n">
+        <v>4</v>
+      </c>
+      <c r="U316" t="n">
+        <v>0</v>
+      </c>
+      <c r="V316" t="n">
+        <v>2</v>
+      </c>
+      <c r="W316" t="n">
+        <v>0</v>
+      </c>
+      <c r="X316" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y316" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="Z316" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AA316" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AB316" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AC316" t="n">
+        <v>1.62</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>E1</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>14/01/2023</t>
+        </is>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="D317" t="inlineStr">
+        <is>
+          <t>Luton</t>
+        </is>
+      </c>
+      <c r="E317" t="inlineStr">
+        <is>
+          <t>West Brom</t>
+        </is>
+      </c>
+      <c r="F317" t="n">
+        <v>2</v>
+      </c>
+      <c r="G317" t="n">
+        <v>3</v>
+      </c>
+      <c r="H317" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I317" t="n">
+        <v>2</v>
+      </c>
+      <c r="J317" t="n">
+        <v>1</v>
+      </c>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="L317" t="inlineStr">
+        <is>
+          <t>J Smith</t>
+        </is>
+      </c>
+      <c r="M317" t="n">
+        <v>10</v>
+      </c>
+      <c r="N317" t="n">
+        <v>18</v>
+      </c>
+      <c r="O317" t="n">
+        <v>4</v>
+      </c>
+      <c r="P317" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q317" t="n">
+        <v>15</v>
+      </c>
+      <c r="R317" t="n">
+        <v>9</v>
+      </c>
+      <c r="S317" t="n">
+        <v>2</v>
+      </c>
+      <c r="T317" t="n">
+        <v>9</v>
+      </c>
+      <c r="U317" t="n">
+        <v>3</v>
+      </c>
+      <c r="V317" t="n">
+        <v>2</v>
+      </c>
+      <c r="W317" t="n">
+        <v>0</v>
+      </c>
+      <c r="X317" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y317" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z317" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AA317" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AB317" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AC317" t="n">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>E1</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>14/01/2023</t>
+        </is>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="D318" t="inlineStr">
+        <is>
+          <t>Middlesbrough</t>
+        </is>
+      </c>
+      <c r="E318" t="inlineStr">
+        <is>
+          <t>Millwall</t>
+        </is>
+      </c>
+      <c r="F318" t="n">
+        <v>1</v>
+      </c>
+      <c r="G318" t="n">
+        <v>0</v>
+      </c>
+      <c r="H318" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="I318" t="n">
+        <v>0</v>
+      </c>
+      <c r="J318" t="n">
+        <v>0</v>
+      </c>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="L318" t="inlineStr">
+        <is>
+          <t>M Donohue</t>
+        </is>
+      </c>
+      <c r="M318" t="n">
+        <v>7</v>
+      </c>
+      <c r="N318" t="n">
+        <v>8</v>
+      </c>
+      <c r="O318" t="n">
+        <v>3</v>
+      </c>
+      <c r="P318" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q318" t="n">
+        <v>8</v>
+      </c>
+      <c r="R318" t="n">
+        <v>13</v>
+      </c>
+      <c r="S318" t="n">
+        <v>6</v>
+      </c>
+      <c r="T318" t="n">
+        <v>3</v>
+      </c>
+      <c r="U318" t="n">
+        <v>2</v>
+      </c>
+      <c r="V318" t="n">
+        <v>3</v>
+      </c>
+      <c r="W318" t="n">
+        <v>0</v>
+      </c>
+      <c r="X318" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y318" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="Z318" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AA318" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB318" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AC318" t="n">
+        <v>1.73</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>E1</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>14/01/2023</t>
+        </is>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="D319" t="inlineStr">
+        <is>
+          <t>Preston</t>
+        </is>
+      </c>
+      <c r="E319" t="inlineStr">
+        <is>
+          <t>Norwich</t>
+        </is>
+      </c>
+      <c r="F319" t="n">
+        <v>0</v>
+      </c>
+      <c r="G319" t="n">
+        <v>4</v>
+      </c>
+      <c r="H319" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I319" t="n">
+        <v>0</v>
+      </c>
+      <c r="J319" t="n">
+        <v>3</v>
+      </c>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="L319" t="inlineStr">
+        <is>
+          <t>S Martin</t>
+        </is>
+      </c>
+      <c r="M319" t="n">
+        <v>9</v>
+      </c>
+      <c r="N319" t="n">
+        <v>22</v>
+      </c>
+      <c r="O319" t="n">
+        <v>2</v>
+      </c>
+      <c r="P319" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q319" t="n">
+        <v>17</v>
+      </c>
+      <c r="R319" t="n">
+        <v>11</v>
+      </c>
+      <c r="S319" t="n">
+        <v>4</v>
+      </c>
+      <c r="T319" t="n">
+        <v>7</v>
+      </c>
+      <c r="U319" t="n">
+        <v>4</v>
+      </c>
+      <c r="V319" t="n">
+        <v>4</v>
+      </c>
+      <c r="W319" t="n">
+        <v>0</v>
+      </c>
+      <c r="X319" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y319" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="Z319" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AA319" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AB319" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AC319" t="n">
+        <v>1.73</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>E1</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>14/01/2023</t>
+        </is>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="D320" t="inlineStr">
+        <is>
+          <t>Reading</t>
+        </is>
+      </c>
+      <c r="E320" t="inlineStr">
+        <is>
+          <t>QPR</t>
+        </is>
+      </c>
+      <c r="F320" t="n">
+        <v>2</v>
+      </c>
+      <c r="G320" t="n">
+        <v>2</v>
+      </c>
+      <c r="H320" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="I320" t="n">
+        <v>2</v>
+      </c>
+      <c r="J320" t="n">
+        <v>0</v>
+      </c>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="L320" t="inlineStr">
+        <is>
+          <t>D Bond</t>
+        </is>
+      </c>
+      <c r="M320" t="n">
+        <v>10</v>
+      </c>
+      <c r="N320" t="n">
+        <v>17</v>
+      </c>
+      <c r="O320" t="n">
+        <v>3</v>
+      </c>
+      <c r="P320" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q320" t="n">
+        <v>11</v>
+      </c>
+      <c r="R320" t="n">
+        <v>9</v>
+      </c>
+      <c r="S320" t="n">
+        <v>5</v>
+      </c>
+      <c r="T320" t="n">
+        <v>7</v>
+      </c>
+      <c r="U320" t="n">
+        <v>2</v>
+      </c>
+      <c r="V320" t="n">
+        <v>2</v>
+      </c>
+      <c r="W320" t="n">
+        <v>0</v>
+      </c>
+      <c r="X320" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y320" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Z320" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AA320" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AB320" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AC320" t="n">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>E1</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>14/01/2023</t>
+        </is>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="D321" t="inlineStr">
+        <is>
+          <t>Sheffield United</t>
+        </is>
+      </c>
+      <c r="E321" t="inlineStr">
+        <is>
+          <t>Stoke</t>
+        </is>
+      </c>
+      <c r="F321" t="n">
+        <v>3</v>
+      </c>
+      <c r="G321" t="n">
+        <v>1</v>
+      </c>
+      <c r="H321" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="I321" t="n">
+        <v>2</v>
+      </c>
+      <c r="J321" t="n">
+        <v>1</v>
+      </c>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="L321" t="inlineStr">
+        <is>
+          <t>M Salisbury</t>
+        </is>
+      </c>
+      <c r="M321" t="n">
+        <v>8</v>
+      </c>
+      <c r="N321" t="n">
+        <v>9</v>
+      </c>
+      <c r="O321" t="n">
+        <v>3</v>
+      </c>
+      <c r="P321" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q321" t="n">
+        <v>7</v>
+      </c>
+      <c r="R321" t="n">
+        <v>13</v>
+      </c>
+      <c r="S321" t="n">
+        <v>2</v>
+      </c>
+      <c r="T321" t="n">
+        <v>6</v>
+      </c>
+      <c r="U321" t="n">
+        <v>2</v>
+      </c>
+      <c r="V321" t="n">
+        <v>2</v>
+      </c>
+      <c r="W321" t="n">
+        <v>0</v>
+      </c>
+      <c r="X321" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y321" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="Z321" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AA321" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB321" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AC321" t="n">
+        <v>1.83</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>E1</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>14/01/2023</t>
+        </is>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="D322" t="inlineStr">
+        <is>
+          <t>Sunderland</t>
+        </is>
+      </c>
+      <c r="E322" t="inlineStr">
+        <is>
+          <t>Swansea</t>
+        </is>
+      </c>
+      <c r="F322" t="n">
+        <v>1</v>
+      </c>
+      <c r="G322" t="n">
+        <v>3</v>
+      </c>
+      <c r="H322" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I322" t="n">
+        <v>0</v>
+      </c>
+      <c r="J322" t="n">
+        <v>0</v>
+      </c>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="L322" t="inlineStr">
+        <is>
+          <t>K Stroud</t>
+        </is>
+      </c>
+      <c r="M322" t="n">
+        <v>8</v>
+      </c>
+      <c r="N322" t="n">
+        <v>18</v>
+      </c>
+      <c r="O322" t="n">
+        <v>3</v>
+      </c>
+      <c r="P322" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q322" t="n">
+        <v>15</v>
+      </c>
+      <c r="R322" t="n">
+        <v>15</v>
+      </c>
+      <c r="S322" t="n">
+        <v>1</v>
+      </c>
+      <c r="T322" t="n">
+        <v>4</v>
+      </c>
+      <c r="U322" t="n">
+        <v>1</v>
+      </c>
+      <c r="V322" t="n">
+        <v>4</v>
+      </c>
+      <c r="W322" t="n">
+        <v>1</v>
+      </c>
+      <c r="X322" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y322" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Z322" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AA322" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AB322" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC322" t="n">
+        <v>1.85</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>E1</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>14/01/2023</t>
+        </is>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="D323" t="inlineStr">
+        <is>
+          <t>Watford</t>
+        </is>
+      </c>
+      <c r="E323" t="inlineStr">
+        <is>
+          <t>Blackpool</t>
+        </is>
+      </c>
+      <c r="F323" t="n">
+        <v>2</v>
+      </c>
+      <c r="G323" t="n">
+        <v>0</v>
+      </c>
+      <c r="H323" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="I323" t="n">
+        <v>0</v>
+      </c>
+      <c r="J323" t="n">
+        <v>0</v>
+      </c>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="L323" t="inlineStr">
+        <is>
+          <t>G Ward</t>
+        </is>
+      </c>
+      <c r="M323" t="n">
+        <v>11</v>
+      </c>
+      <c r="N323" t="n">
+        <v>6</v>
+      </c>
+      <c r="O323" t="n">
+        <v>5</v>
+      </c>
+      <c r="P323" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q323" t="n">
+        <v>11</v>
+      </c>
+      <c r="R323" t="n">
+        <v>14</v>
+      </c>
+      <c r="S323" t="n">
+        <v>2</v>
+      </c>
+      <c r="T323" t="n">
+        <v>3</v>
+      </c>
+      <c r="U323" t="n">
+        <v>2</v>
+      </c>
+      <c r="V323" t="n">
+        <v>3</v>
+      </c>
+      <c r="W323" t="n">
+        <v>0</v>
+      </c>
+      <c r="X323" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y323" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="Z323" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AA323" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AB323" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AC323" t="n">
+        <v>1.9</v>
       </c>
     </row>
   </sheetData>
